--- a/Assets/Docs/Design/Stats Design Docs.xlsx
+++ b/Assets/Docs/Design/Stats Design Docs.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="战棋模拟" sheetId="2" r:id="rId2"/>
+    <sheet name="战棋模拟" sheetId="2" r:id="rId1"/>
+    <sheet name="程序支持的技能效果" sheetId="4" r:id="rId2"/>
     <sheet name="典型技能范围" sheetId="3" r:id="rId3"/>
+    <sheet name="技能体系" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>预期单局游戏回合数</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -236,6 +237,158 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger反制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：扑灭一团火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger飞行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff:衍生效果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如在敌方英雄之间传递的闪电链</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹类技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff的idle时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来形成效果延迟触发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff的生效条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来形成效果combo，满足一系列条件达成最佳输出或者最佳防护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前摇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效延迟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后摇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正负</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小（绝对值）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovePoint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正负</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被克制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生效范围可以细而长，类似狙击手</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +476,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,34 +683,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,20 +707,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -874,24 +1070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -912,7 +1095,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="14"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -942,7 +1125,7 @@
     </row>
     <row r="4" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2"/>
@@ -958,11 +1141,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="2"/>
@@ -993,13 +1176,13 @@
     <row r="8" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="2"/>
@@ -1014,13 +1197,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2"/>
@@ -1036,7 +1219,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="2"/>
@@ -1079,7 +1262,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1109,54 +1292,54 @@
       <c r="L21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="17">
         <f>$M$20*$N$20</f>
         <v>135</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="19">
         <v>6</v>
       </c>
-      <c r="N22" s="13"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="20">
         <f>$M$21/$M$22</f>
         <v>22.5</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="17">
         <f>SQRT(M23)</f>
         <v>4.7434164902525691</v>
       </c>
-      <c r="N24" s="9"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="12:20" ht="43.2" x14ac:dyDescent="0.25">
       <c r="L25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="17">
         <f>$M$21*0.5</f>
         <v>67.5</v>
       </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="17"/>
       <c r="P25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="5">
         <f>$M$25/2</f>
         <v>33.75</v>
       </c>
@@ -1185,21 +1368,21 @@
       <c r="L28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="14">
         <v>5</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="P28" s="7" t="s">
+      <c r="N28" s="15"/>
+      <c r="P28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="17">
         <f>$M$28*$M$29</f>
         <v>30</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="18">
         <f>$Q$28/$Q$25</f>
         <v>0.88888888888888884</v>
       </c>
@@ -1208,14 +1391,14 @@
       <c r="L29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="14">
         <v>6</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="9"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="8"/>
+      <c r="N29" s="15"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L30" s="2"/>
@@ -1230,17 +1413,17 @@
       <c r="N31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="4">
         <f>$N$32+$M$34</f>
         <v>16</v>
       </c>
@@ -1261,10 +1444,10 @@
       <c r="L33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="14">
         <v>3</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="15"/>
       <c r="P33" s="3">
         <v>1</v>
       </c>
@@ -1279,10 +1462,10 @@
       <c r="L34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="14">
         <v>10</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="15"/>
       <c r="P34" s="3">
         <v>2</v>
       </c>
@@ -1305,12 +1488,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="S28:S29"/>
     <mergeCell ref="T28:T29"/>
     <mergeCell ref="M21:N21"/>
@@ -1319,6 +1496,12 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1327,110 +1510,179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="24" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:AE22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="5.88671875" style="18"/>
+    <col min="1" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD4" s="23"/>
+      <c r="AD4" s="13"/>
     </row>
     <row r="5" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="AD5" s="23"/>
+      <c r="G5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="AD5" s="13"/>
     </row>
     <row r="6" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="AD6" s="23"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="AD6" s="13"/>
     </row>
     <row r="7" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
     </row>
     <row r="8" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="P8" s="22" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="P8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="22" t="s">
+      <c r="W8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AD8" s="22" t="s">
+      <c r="AD8" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="23"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="11" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="11">
         <v>12</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="11">
         <v>5</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="11">
         <v>9</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" s="18" t="s">
+      <c r="AC11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="11">
         <v>6</v>
       </c>
-      <c r="AE11" s="18" t="s">
+      <c r="AE11" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1438,93 +1690,93 @@
       <c r="F12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="O12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
       <c r="V12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="19"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
       <c r="AC12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="19"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="23"/>
     </row>
     <row r="14" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="23"/>
-      <c r="W14" s="23"/>
+      <c r="G14" s="13"/>
+      <c r="W14" s="13"/>
     </row>
     <row r="15" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="G15" s="13"/>
+      <c r="W15" s="13"/>
     </row>
     <row r="16" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="W16" s="23"/>
+      <c r="G16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="22" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="23"/>
-      <c r="W17" s="23"/>
+      <c r="Q17" s="13"/>
+      <c r="W17" s="13"/>
     </row>
     <row r="18" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="G18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="W18" s="13"/>
     </row>
     <row r="19" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="23"/>
-      <c r="W19" s="23"/>
+      <c r="G19" s="13"/>
+      <c r="W19" s="13"/>
     </row>
     <row r="20" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="23"/>
-      <c r="W20" s="22" t="s">
+      <c r="G20" s="13"/>
+      <c r="W20" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="18">
+      <c r="G21" s="11">
         <v>12</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="11">
         <v>8</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="V21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="11">
         <v>6</v>
       </c>
-      <c r="X21" s="18" t="s">
+      <c r="X21" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1532,18 +1784,18 @@
       <c r="F22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="O22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23"/>
       <c r="V22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="W22" s="20"/>
-      <c r="X22" s="19"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1558,4 +1810,187 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22.5546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="63.109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>